--- a/rhla_analysis/rhla1_6_exp_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k9.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002342225875624816</v>
+        <v>0.002978739200334502</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3801042260388509</v>
+        <v>0.3791682829822712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2638533674339301</v>
+        <v>0.2162253903598099</v>
       </c>
       <c r="D2" t="n">
-        <v>162.2833348374028</v>
+        <v>127.2915342637892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006344483127621234</v>
+        <v>0.008587544545505862</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4703310650520111</v>
+        <v>0.4717089049745412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2698209718670077</v>
+        <v>0.2101154107264087</v>
       </c>
       <c r="D3" t="n">
-        <v>74.13229030500307</v>
+        <v>54.92942743702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.004538437372840348</v>
+        <v>0.002771251639807262</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4056220582532086</v>
+        <v>0.4067098608284619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2719522591645354</v>
+        <v>0.2209775967413442</v>
       </c>
       <c r="D4" t="n">
-        <v>89.37482770624923</v>
+        <v>146.7603500838157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001979967376863663</v>
+        <v>0.003621164651264915</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4168993810730848</v>
+        <v>0.4181475667933041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.2216564833672777</v>
       </c>
       <c r="D5" t="n">
-        <v>210.5587122013434</v>
+        <v>115.4732267275503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007830305489310952</v>
+        <v>0.007926646191326388</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5126943743728675</v>
+        <v>0.5078069708652867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257459505541347</v>
+        <v>0.208418194161575</v>
       </c>
       <c r="D6" t="n">
-        <v>65.47565418395743</v>
+        <v>64.06328207520436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004564550874200424</v>
+        <v>0.003106247227965141</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3974964643055626</v>
+        <v>0.4006696545588379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.252770673486786</v>
+        <v>0.1965376782077393</v>
       </c>
       <c r="D7" t="n">
-        <v>87.08336816931465</v>
+        <v>128.9883338813669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00334757060078818</v>
+        <v>0.004407349759660052</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3453206729994461</v>
+        <v>0.3500018537568586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2612958226768968</v>
+        <v>0.203326544467074</v>
       </c>
       <c r="D8" t="n">
-        <v>103.1556057154227</v>
+        <v>79.41322401057978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003672236042379449</v>
+        <v>0.001465170607649161</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4049314080736021</v>
+        <v>0.404291206556761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2561807331628304</v>
+        <v>0.198234894772573</v>
       </c>
       <c r="D9" t="n">
-        <v>110.2683496922557</v>
+        <v>275.9345597339267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003043026910987109</v>
+        <v>0.003048536910214605</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3895683498274787</v>
+        <v>0.3960765423647881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2681159420289855</v>
+        <v>0.2152070604209097</v>
       </c>
       <c r="D10" t="n">
-        <v>128.0200146837048</v>
+        <v>129.9234859311268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006015602701531346</v>
+        <v>0.005499657044033046</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3785122478523811</v>
+        <v>0.3863370433567291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2664109121909634</v>
+        <v>0.209775967413442</v>
       </c>
       <c r="D11" t="n">
-        <v>62.92174976183619</v>
+        <v>70.24747911797382</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002978739200334502</v>
+        <v>0.002978739200334476</v>
       </c>
       <c r="B2" t="n">
         <v>0.3791682829822712</v>
@@ -466,12 +466,12 @@
         <v>0.2162253903598099</v>
       </c>
       <c r="D2" t="n">
-        <v>127.2915342637892</v>
+        <v>127.2915342637903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008587544545505862</v>
+        <v>0.008587544545505855</v>
       </c>
       <c r="B3" t="n">
         <v>0.4717089049745412</v>
@@ -480,12 +480,12 @@
         <v>0.2101154107264087</v>
       </c>
       <c r="D3" t="n">
-        <v>54.92942743702</v>
+        <v>54.92942743702005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002771251639807262</v>
+        <v>0.002771251639807249</v>
       </c>
       <c r="B4" t="n">
         <v>0.4067098608284619</v>
@@ -494,12 +494,12 @@
         <v>0.2209775967413442</v>
       </c>
       <c r="D4" t="n">
-        <v>146.7603500838157</v>
+        <v>146.7603500838163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003621164651264915</v>
+        <v>0.003621164651264878</v>
       </c>
       <c r="B5" t="n">
         <v>0.4181475667933041</v>
@@ -508,26 +508,26 @@
         <v>0.2216564833672777</v>
       </c>
       <c r="D5" t="n">
-        <v>115.4732267275503</v>
+        <v>115.4732267275515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007926646191326388</v>
+        <v>0.007926646191326384</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5078069708652867</v>
+        <v>0.5078069708652868</v>
       </c>
       <c r="C6" t="n">
         <v>0.208418194161575</v>
       </c>
       <c r="D6" t="n">
-        <v>64.06328207520436</v>
+        <v>64.0632820752044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003106247227965141</v>
+        <v>0.003106247227965153</v>
       </c>
       <c r="B7" t="n">
         <v>0.4006696545588379</v>
@@ -536,12 +536,12 @@
         <v>0.1965376782077393</v>
       </c>
       <c r="D7" t="n">
-        <v>128.9883338813669</v>
+        <v>128.9883338813664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004407349759660052</v>
+        <v>0.004407349759660068</v>
       </c>
       <c r="B8" t="n">
         <v>0.3500018537568586</v>
@@ -550,12 +550,12 @@
         <v>0.203326544467074</v>
       </c>
       <c r="D8" t="n">
-        <v>79.41322401057978</v>
+        <v>79.41322401057948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001465170607649161</v>
+        <v>0.001465170607649154</v>
       </c>
       <c r="B9" t="n">
         <v>0.404291206556761</v>
@@ -564,12 +564,12 @@
         <v>0.198234894772573</v>
       </c>
       <c r="D9" t="n">
-        <v>275.9345597339267</v>
+        <v>275.9345597339279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003048536910214605</v>
+        <v>0.003048536910214612</v>
       </c>
       <c r="B10" t="n">
         <v>0.3960765423647881</v>
@@ -578,12 +578,12 @@
         <v>0.2152070604209097</v>
       </c>
       <c r="D10" t="n">
-        <v>129.9234859311268</v>
+        <v>129.9234859311265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005499657044033046</v>
+        <v>0.005499657044033082</v>
       </c>
       <c r="B11" t="n">
         <v>0.3863370433567291</v>
@@ -592,7 +592,7 @@
         <v>0.209775967413442</v>
       </c>
       <c r="D11" t="n">
-        <v>70.24747911797382</v>
+        <v>70.24747911797337</v>
       </c>
     </row>
   </sheetData>
